--- a/biology/Botanique/Rousseaceae/Rousseaceae.xlsx
+++ b/biology/Botanique/Rousseaceae/Rousseaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Rousséacées regroupe des plantes dicotylédones.
 Selon les classifications elle comprend soit le seul genre Roussea et une seule espèce "Roussea simplex", un arbuste grimpant à feuilles persistantes originaire de l'île Maurice, soit, outre le genre Roussea, trois autres Abrophyllum, Carpodetus, Cuttsia qui sont des arbres originaires de Nouvelle-Zélande, d'Australie et de Nouvelle-Guinée.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Roussea commémore le philosophe genevois Jean-Jacques Rousseau (1712-1778).
 </t>
@@ -545,15 +559,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grandes lignes
-La classification classique de Cronquist (1981)[1] cette famille n'existe pas et les genres sont inclus dans la famille des Grossulariacées, dans l'ordre des Rosales.
-En classification phylogénétique APG II (2003)[2] elle compte 13 espèces réparties en 4 genres :
+          <t>Grandes lignes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La classification classique de Cronquist (1981) cette famille n'existe pas et les genres sont inclus dans la famille des Grossulariacées, dans l'ordre des Rosales.
+En classification phylogénétique APG II (2003) elle compte 13 espèces réparties en 4 genres :
 Abrophyllum, Carpodetus, Cuttsia, Roussea.
 Le Angiosperm Phylogeny Website [17 dec 2006] considère 2 sous-familles distinctes :
 Les Rousséaoidées avec l'espèce Roussea simplex.
-Les Carpodétoidées avec les genres Abrophyllum, Carpodetus, Cuttsia
-Histoire taxonomique
-L'espèce Roussea simplex a été décrite en 1789 par le botaniste britannique James Edward Smith, qui le plaça dans les Campanulacées. 
+Les Carpodétoidées avec les genres Abrophyllum, Carpodetus, Cuttsia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rousseaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rousseaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Histoire taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Roussea simplex a été décrite en 1789 par le botaniste britannique James Edward Smith, qui le plaça dans les Campanulacées. 
 En 1830, le botaniste français Alphonse Pyrame de Candolle rejeta cette affectation et envisagea des liens avec les Escalloniaceae, les Loganiaceae ou les Goodeniaceae. 
 En 1839, son père, Augustin-Pyramus de Candolle, a finalement érigé la famille monotypique des Rousseaceae. 
 En 1853, le botaniste britannique John Lindley observa des relations étroites avec les genres Argophyllum (en) (Argophyllaceae), Ixerba (en) (Strasburgeriaceae) et Brexia (en) (Celastraceae), et il inclut le genre Roussea dans les Brexiaceae (famille actuellement non reconnue). 
@@ -563,71 +616,75 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Rousseaceae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rousseaceae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[3] et NCBI  (12 nov. 2015)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) et NCBI  (12 nov. 2015) :
 Abrophyllum
 Carpodetus (en)
 Cuttsia (en)
 Roussea (en)
-Selon DELTA Angio           (12 nov. 2015)[5] :
+Selon DELTA Angio           (12 nov. 2015) :
 genre Abrophyllum
 Carpodetus
 Roussea</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Rousseaceae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rousseaceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 nov. 2015)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 nov. 2015) :
 genre Abrophyllum
 Abrophyllum ornans
 genre Carpodetus
